--- a/Employee_Reports28/Pasidu Pamodaya Rathnayake Rathnayake Mudiyanselage Q0568.xlsx
+++ b/Employee_Reports28/Pasidu Pamodaya Rathnayake Rathnayake Mudiyanselage Q0568.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,10 +28,7 @@
     </font>
     <font>
       <b val="1"/>
-      <sz val="14"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <color rgb="00FFFFFF"/>
     </font>
   </fonts>
   <fills count="4">
@@ -77,7 +74,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -574,11 +571,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -623,11 +620,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -672,11 +669,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -721,11 +718,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -770,11 +767,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -819,11 +816,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -868,11 +865,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -917,11 +914,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -966,11 +963,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1015,11 +1012,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1064,11 +1061,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1113,11 +1110,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1162,11 +1159,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1211,11 +1208,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1260,11 +1257,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1275,51 +1272,51 @@
       <c r="K17" s="3" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="n">
+      <c r="A18" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="3" t="inlineStr">
+      <c r="B18" s="4" t="inlineStr">
         <is>
           <t>LOTO (SOPs)</t>
         </is>
       </c>
-      <c r="C18" s="3" t="inlineStr">
+      <c r="C18" s="4" t="inlineStr">
         <is>
           <t>ELECTRICAL SAFETY</t>
         </is>
       </c>
-      <c r="D18" s="3" t="n">
+      <c r="D18" s="4" t="n">
         <v/>
       </c>
-      <c r="E18" s="3" t="inlineStr">
+      <c r="E18" s="4" t="inlineStr">
         <is>
           <t>SOP</t>
         </is>
       </c>
-      <c r="F18" s="3" t="inlineStr">
+      <c r="F18" s="4" t="inlineStr">
         <is>
           <t>02-Oct-2024</t>
         </is>
       </c>
-      <c r="G18" s="3" t="inlineStr">
+      <c r="G18" s="4" t="inlineStr">
         <is>
           <t>02-Oct-2025</t>
         </is>
       </c>
-      <c r="H18" s="3" t="n">
-        <v>23</v>
-      </c>
-      <c r="I18" s="3" t="inlineStr">
-        <is>
-          <t>08-Sep-2025</t>
-        </is>
-      </c>
-      <c r="J18" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K18" s="3" t="inlineStr"/>
+      <c r="H18" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="I18" s="4" t="inlineStr">
+        <is>
+          <t>16-Sep-2025</t>
+        </is>
+      </c>
+      <c r="J18" s="4" t="inlineStr">
+        <is>
+          <t>NOT VALID</t>
+        </is>
+      </c>
+      <c r="K18" s="4" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
@@ -1355,11 +1352,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1402,11 +1399,11 @@
         </is>
       </c>
       <c r="H20" s="4" t="n">
-        <v>-118</v>
+        <v>-126</v>
       </c>
       <c r="I20" s="4" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J20" s="4" t="inlineStr">
@@ -1449,11 +1446,11 @@
         </is>
       </c>
       <c r="H21" s="4" t="n">
-        <v>-21</v>
+        <v>-29</v>
       </c>
       <c r="I21" s="4" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J21" s="4" t="inlineStr">
@@ -1486,11 +1483,11 @@
         </is>
       </c>
       <c r="H22" s="4" t="n">
-        <v>-21</v>
+        <v>-29</v>
       </c>
       <c r="I22" s="4" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J22" s="4" t="inlineStr">
@@ -1523,11 +1520,11 @@
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
@@ -1570,11 +1567,11 @@
         </is>
       </c>
       <c r="H24" s="3" t="n">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
@@ -1617,11 +1614,11 @@
         </is>
       </c>
       <c r="H25" s="3" t="n">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J25" s="3" t="inlineStr">
@@ -1664,11 +1661,11 @@
         </is>
       </c>
       <c r="H26" s="3" t="n">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J26" s="3" t="inlineStr">
@@ -1711,11 +1708,11 @@
         </is>
       </c>
       <c r="H27" s="3" t="n">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="I27" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J27" s="3" t="inlineStr">
@@ -1748,11 +1745,11 @@
         </is>
       </c>
       <c r="H28" s="3" t="n">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="I28" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J28" s="3" t="inlineStr">
@@ -1785,11 +1782,11 @@
         </is>
       </c>
       <c r="H29" s="3" t="n">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="I29" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J29" s="3" t="inlineStr">
@@ -1822,11 +1819,11 @@
         </is>
       </c>
       <c r="H30" s="3" t="n">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="I30" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J30" s="3" t="inlineStr">
@@ -1862,7 +1859,7 @@
     <col width="24" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
     <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="44" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
     <col width="2" customWidth="1" min="6" max="6"/>
     <col width="2" customWidth="1" min="7" max="7"/>
   </cols>
@@ -1922,7 +1919,7 @@
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>date is valid</t>
         </is>
       </c>
       <c r="F3" s="3" t="n"/>
@@ -1947,7 +1944,7 @@
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>Kindly redo your exam the exam is outdated</t>
+          <t>date is valid</t>
         </is>
       </c>
       <c r="F4" s="3" t="n"/>
@@ -1972,7 +1969,7 @@
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>date is valid</t>
         </is>
       </c>
       <c r="F5" s="3" t="n"/>
@@ -1997,7 +1994,7 @@
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>date is valid</t>
         </is>
       </c>
       <c r="F6" s="3" t="n"/>
@@ -2022,7 +2019,7 @@
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>date is valid</t>
         </is>
       </c>
       <c r="F7" s="3" t="n"/>
@@ -2047,7 +2044,7 @@
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>date is valid</t>
         </is>
       </c>
       <c r="F8" s="3" t="n"/>
@@ -2072,7 +2069,7 @@
       </c>
       <c r="E9" s="3" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>date is valid</t>
         </is>
       </c>
       <c r="F9" s="3" t="n"/>
@@ -2097,7 +2094,7 @@
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>date is valid</t>
         </is>
       </c>
       <c r="F10" s="3" t="n"/>
@@ -2122,7 +2119,7 @@
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>date is valid</t>
         </is>
       </c>
       <c r="F11" s="3" t="n"/>
@@ -2147,7 +2144,7 @@
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>date is valid</t>
         </is>
       </c>
       <c r="F12" s="3" t="n"/>
@@ -2172,7 +2169,7 @@
       </c>
       <c r="E13" s="3" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>date is valid</t>
         </is>
       </c>
       <c r="F13" s="3" t="n"/>
